--- a/realme/Others/RSC Bank AC Number.xlsx
+++ b/realme/Others/RSC Bank AC Number.xlsx
@@ -144,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -155,6 +155,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -271,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +603,7 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
